--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_32.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1100969.191851829</v>
+        <v>721535.0259540672</v>
       </c>
     </row>
     <row r="8">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>175.3463367010195</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>288.2142327109575</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -826,19 +826,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>79.48734420188134</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.91401559658166</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.602837505177126</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>52.93619078451073</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>216.6993815150878</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>16.60557849018884</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>149.9110215765461</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.41204342723558</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896911</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>136.3822614040857</v>
+        <v>11.97054259630945</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>100.344553571276</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>90.17651664802349</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>57.83550416665236</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,10 +2059,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>101.2898147863548</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.9451218977769</v>
+        <v>137.1258676854691</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>154.1709675101222</v>
       </c>
       <c r="X25" t="n">
-        <v>215.0546805228906</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>3.334148296601953</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>3.347695664762796</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2849,7 +2849,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701332</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>221.9323490168593</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>112.8480137530759</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>118.3632011761925</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>178.5892209839261</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>5.738791332773453</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>143.1845037767903</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>33.94484872800959</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>235.8832106089691</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174139</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,19 +3952,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>40.58383361977268</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>174.3062600431772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>138.9519809751039</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>227.4413248275281</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1838.661061815299</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1469.698544874887</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1111.432846268137</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>725.6445936698926</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1702.420973886214</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.661061815299</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,25 +4413,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>678.7208876442307</v>
+        <v>477.919485916526</v>
       </c>
       <c r="C4" t="n">
-        <v>678.7208876442307</v>
+        <v>477.919485916526</v>
       </c>
       <c r="D4" t="n">
-        <v>528.604248231895</v>
+        <v>327.8028465041903</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>179.8897529217971</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>678.7208876442307</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1376.372217881286</v>
+        <v>1957.780595683986</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2643.678191235888</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2467.500703550058</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2467.500703550058</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2467.500703550058</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2136.437816206488</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2136.437816206488</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1762.972057945408</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y5" t="n">
-        <v>1762.972057945408</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>702.55736257324</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>702.55736257324</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>702.55736257324</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>702.55736257324</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1164.312709242129</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C8" t="n">
-        <v>1164.312709242129</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
         <v>799.1015098861748</v>
@@ -4796,58 +4796,58 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2680.375779411972</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2680.375779411972</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2680.375779411972</v>
       </c>
       <c r="W8" t="n">
-        <v>2314.517639543142</v>
+        <v>2327.607124141857</v>
       </c>
       <c r="X8" t="n">
-        <v>1941.051881282062</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y8" t="n">
-        <v>1550.91254930625</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>83.6521165953499</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>83.6521165953499</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>83.6521165953499</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6471865296039</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570175</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M12" t="n">
-        <v>1442.339749591389</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="N12" t="n">
-        <v>1786.860405229007</v>
+        <v>1640.883299539163</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2310.347060841822</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.0596387883054</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="C13" t="n">
-        <v>506.0596387883054</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D13" t="n">
-        <v>506.0596387883054</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1050.161297031153</v>
+        <v>1263.039398179419</v>
       </c>
       <c r="V13" t="n">
-        <v>795.4768088252661</v>
+        <v>1263.039398179419</v>
       </c>
       <c r="W13" t="n">
-        <v>506.0596387883054</v>
+        <v>973.6222281424583</v>
       </c>
       <c r="X13" t="n">
-        <v>506.0596387883054</v>
+        <v>745.632677244441</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.0596387883054</v>
+        <v>524.8400981009108</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5258,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171745</v>
+        <v>752.6052383825321</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>1089.288466700114</v>
       </c>
       <c r="N15" t="n">
-        <v>2192.176613678825</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.5712828402495</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1397.558135637422</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1397.558135637422</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1108.42949685098</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>1108.42949685098</v>
+        <v>873.0483512712267</v>
       </c>
       <c r="W16" t="n">
-        <v>819.0123268140193</v>
+        <v>583.631181234266</v>
       </c>
       <c r="X16" t="n">
-        <v>819.0123268140193</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="Y16" t="n">
-        <v>598.2197476704891</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5528,13 +5528,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5580,13 +5580,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5595,19 +5595,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>836.471721275012</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1156.807040804714</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N18" t="n">
-        <v>1961.218619068865</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="O18" t="n">
-        <v>2209.972033152827</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P18" t="n">
         <v>2623.573505376138</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>472.4860691490226</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>303.5498862211157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227924</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>874.9271131227924</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W19" t="n">
-        <v>874.9271131227924</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X19" t="n">
-        <v>874.9271131227924</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>654.1345339792623</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5741,7 +5741,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,19 +5750,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5780,22 +5780,22 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,16 +5832,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>452.5377573864724</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M21" t="n">
-        <v>967.054688195977</v>
+        <v>1387.765035414674</v>
       </c>
       <c r="N21" t="n">
-        <v>1771.466266460128</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O21" t="n">
         <v>2440.930027762787</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.3990000507114</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C22" t="n">
-        <v>562.3990000507114</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655742</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W22" t="n">
-        <v>955.1031435655742</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X22" t="n">
-        <v>744.0474648809511</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.0474648809511</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5987,52 +5987,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047986</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="L24" t="n">
-        <v>1122.004430061687</v>
+        <v>2948.395228855329</v>
       </c>
       <c r="M24" t="n">
-        <v>1890.372576454149</v>
+        <v>3716.76337524779</v>
       </c>
       <c r="N24" t="n">
-        <v>2374.820091292176</v>
+        <v>3716.76337524779</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>4386.227136550449</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>879.2482765610114</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="C25" t="n">
-        <v>710.3120936331045</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557903</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W25" t="n">
-        <v>1498.916270557903</v>
+        <v>854.1393716767884</v>
       </c>
       <c r="X25" t="n">
-        <v>1281.689320534781</v>
+        <v>854.1393716767884</v>
       </c>
       <c r="Y25" t="n">
-        <v>1060.896741391251</v>
+        <v>854.1393716767884</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6248,28 +6248,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6294,34 +6294,34 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>222.5746515181232</v>
+        <v>115.8755020056878</v>
       </c>
       <c r="L27" t="n">
-        <v>452.5377573864724</v>
+        <v>729.7725717625765</v>
       </c>
       <c r="M27" t="n">
-        <v>897.6601296826477</v>
+        <v>1050.107891292278</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.071707946799</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O27" t="n">
-        <v>2371.535469249458</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>268.7602397026894</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655742</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286137</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305963</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>437.6964226305963</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6449,25 +6449,25 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155902</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,22 +6479,22 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
@@ -6531,34 +6531,34 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>263.5382936126482</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>877.435363369537</v>
+        <v>624.3403654974168</v>
       </c>
       <c r="M30" t="n">
-        <v>1184.755496649499</v>
+        <v>944.6756850271186</v>
       </c>
       <c r="N30" t="n">
-        <v>1989.167074913649</v>
+        <v>1749.087263291269</v>
       </c>
       <c r="O30" t="n">
-        <v>2328.464088060424</v>
+        <v>2418.551024593929</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916675</v>
+        <v>3925.661817631304</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916675</v>
+        <v>3925.661817631304</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916675</v>
+        <v>3925.661817631304</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916675</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H31" t="n">
         <v>3459.155393916675</v>
@@ -6631,40 +6631,40 @@
         <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803799</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="U31" t="n">
-        <v>4412.895067887779</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="V31" t="n">
-        <v>4158.210579681892</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="W31" t="n">
-        <v>3868.793409644932</v>
+        <v>4260.442289454709</v>
       </c>
       <c r="X31" t="n">
-        <v>3640.803858746915</v>
+        <v>4146.454396774834</v>
       </c>
       <c r="Y31" t="n">
-        <v>3640.803858746915</v>
+        <v>3925.661817631304</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6704,46 +6704,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>754.8724882112627</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M33" t="n">
-        <v>1062.192621491225</v>
+        <v>1603.509434232478</v>
       </c>
       <c r="N33" t="n">
-        <v>1392.055249155257</v>
+        <v>2407.921012496628</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2407.921012496628</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>533.625157037447</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C34" t="n">
-        <v>364.6889741095401</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>364.6889741095401</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>216.775880527147</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>216.775880527147</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>216.775880527147</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6874,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>1007.528004526264</v>
       </c>
       <c r="U34" t="n">
-        <v>1164.055751909234</v>
+        <v>718.3993657398219</v>
       </c>
       <c r="V34" t="n">
-        <v>1164.055751909234</v>
+        <v>718.3993657398219</v>
       </c>
       <c r="W34" t="n">
-        <v>1164.055751909234</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="X34" t="n">
-        <v>936.0662010112169</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y34" t="n">
-        <v>715.2736218676868</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="35">
@@ -6935,7 +6935,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6944,19 +6944,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>2745.388427942954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>2745.388427942954</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M36" t="n">
-        <v>3513.756574335415</v>
+        <v>1050.107891292278</v>
       </c>
       <c r="N36" t="n">
-        <v>4318.168152599566</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O36" t="n">
-        <v>4597.708217818264</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P36" t="n">
-        <v>4791.460014500963</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.3337308726216</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7099,10 +7099,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7111,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1493.119511635909</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1293.199501551461</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1069.414086340967</v>
       </c>
       <c r="U37" t="n">
-        <v>1019.424940013486</v>
+        <v>780.2854475545253</v>
       </c>
       <c r="V37" t="n">
-        <v>764.7404518075996</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="W37" t="n">
-        <v>475.3232817706389</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="X37" t="n">
-        <v>247.3337308726216</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.3337308726216</v>
+        <v>525.6009593486384</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,25 +7157,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7190,10 +7190,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>860.1838454192343</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1628.551991811696</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1973.072647449314</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>208.7516828383384</v>
+        <v>917.0640635030462</v>
       </c>
       <c r="C40" t="n">
-        <v>208.7516828383384</v>
+        <v>748.1278805751393</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>598.0112411628036</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>450.0981475804105</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>450.0981475804105</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>281.922825900231</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>131.5048174481743</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7336,10 +7336,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7348,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247865</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383447</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V40" t="n">
-        <v>436.7412337363557</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W40" t="n">
-        <v>436.7412337363557</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X40" t="n">
-        <v>208.7516828383384</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.7516828383384</v>
+        <v>1098.712528333286</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7406,16 +7406,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7433,28 +7433,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>246.2867756623458</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L42" t="n">
-        <v>636.1984612611898</v>
+        <v>523.6234168666124</v>
       </c>
       <c r="M42" t="n">
-        <v>1404.566607653651</v>
+        <v>843.9587363963142</v>
       </c>
       <c r="N42" t="n">
-        <v>1749.087263291269</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O42" t="n">
-        <v>2418.551024593929</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7585,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557903</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557903</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557903</v>
+        <v>803.0342687942954</v>
       </c>
       <c r="X43" t="n">
-        <v>1498.916270557903</v>
+        <v>803.0342687942954</v>
       </c>
       <c r="Y43" t="n">
-        <v>1322.84934122136</v>
+        <v>582.2416896507652</v>
       </c>
     </row>
     <row r="44">
@@ -7643,34 +7643,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277036</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341677</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1184.755496649498</v>
       </c>
       <c r="N45" t="n">
-        <v>2107.32270539078</v>
+        <v>1760.836254362828</v>
       </c>
       <c r="O45" t="n">
-        <v>2386.862770609478</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P45" t="n">
-        <v>2591.885251391687</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>377.6878657662453</v>
+        <v>649.6418670412196</v>
       </c>
       <c r="C46" t="n">
-        <v>208.7516828383384</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D46" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E46" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7822,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>1009.867621687013</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V46" t="n">
-        <v>780.1289097400152</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W46" t="n">
-        <v>780.1289097400152</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X46" t="n">
-        <v>780.1289097400152</v>
+        <v>870.4344461847497</v>
       </c>
       <c r="Y46" t="n">
-        <v>559.336330596485</v>
+        <v>649.6418670412196</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,10 +8787,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,16 +9255,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,19 +9726,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>272.3282380622561</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,28 +10191,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>60.36055346270473</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>137.9476282330529</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,28 +10902,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>149.8550909944917</v>
+        <v>274.2668098022679</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>97.57625641232728</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>161.9611266758045</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>90.77996885156</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>185.2331835502362</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24130,16 +24130,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>16.76453349126029</v>
+        <v>88.58378770356802</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>132.3520308264688</v>
       </c>
       <c r="X25" t="n">
-        <v>10.65497486614655</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>145.2813247216104</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24652,10 +24652,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.8896567338145</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,16 +24844,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>64.30500338171805</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>112.8616416359612</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>30.55062719134361</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25123,25 +25123,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>42.95834007446311</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25312,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25330,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25357,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>104.2255610710193</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>143.052848621787</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>76.47439673626241</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,22 +25597,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>16.25443271485892</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25840,19 +25840,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>245.9391647168183</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>44.27839330891754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>28.2948401235239</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,7 +26038,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,25 +26068,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>24.69631849629985</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26314,13 @@
         <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803346</v>
       </c>
       <c r="F2" t="n">
         <v>625646.4955803343</v>
@@ -26329,31 +26329,31 @@
         <v>625646.4955803341</v>
       </c>
       <c r="H2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="L2" t="n">
         <v>625646.4955803343</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803344</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625646.495580334</v>
       </c>
       <c r="M2" t="n">
         <v>625646.4955803344</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803338</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.139180619</v>
       </c>
-      <c r="C4" t="n">
-        <v>139059.1391806191</v>
-      </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="F4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905757919</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905757999</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759459</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905757959</v>
+        <v>787.7936905759223</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758286</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,34 +26482,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155052.6805671465</v>
+        <v>-155052.6805671464</v>
       </c>
       <c r="C6" t="n">
-        <v>434915.1986473982</v>
+        <v>434915.1986473978</v>
       </c>
       <c r="D6" t="n">
         <v>434915.198647398</v>
       </c>
       <c r="E6" t="n">
-        <v>7711.339464145349</v>
+        <v>7711.339464146062</v>
       </c>
       <c r="F6" t="n">
         <v>532871.3759410419</v>
       </c>
       <c r="G6" t="n">
+        <v>532871.3759410416</v>
+      </c>
+      <c r="H6" t="n">
+        <v>532871.3759410417</v>
+      </c>
+      <c r="I6" t="n">
         <v>532871.3759410415</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>356448.1567484488</v>
+      </c>
+      <c r="K6" t="n">
+        <v>532871.3759410415</v>
+      </c>
+      <c r="L6" t="n">
         <v>532871.3759410419</v>
       </c>
-      <c r="I6" t="n">
-        <v>532871.375941042</v>
-      </c>
-      <c r="J6" t="n">
-        <v>356448.1567484491</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>398070.3607072048</v>
+      </c>
+      <c r="N6" t="n">
         <v>532871.3759410419</v>
       </c>
-      <c r="L6" t="n">
-        <v>532871.3759410414</v>
-      </c>
-      <c r="M6" t="n">
-        <v>398070.3607072049</v>
-      </c>
-      <c r="N6" t="n">
-        <v>532871.3759410414</v>
-      </c>
       <c r="O6" t="n">
-        <v>532871.3759410415</v>
+        <v>532871.3759410413</v>
       </c>
       <c r="P6" t="n">
-        <v>532871.3759410416</v>
+        <v>532871.3759410419</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26817,7 +26817,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26829,7 +26829,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>231.529709040692</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>39.5380257591774</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,19 +27546,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>65.9337038210499</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>169.6706377555131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>361.6700542658304</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.542211790300982</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,13 +27673,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.806844538052008</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>69.58249272688991</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>199.842741867469</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>199.3299471408669</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>15.78791576130141</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>130.3958356744439</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-1.257369594855437e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,22 +31592,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>132.9984977071305</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31841,28 +31841,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>339.3147979156452</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>131.9019867888539</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -32075,28 +32075,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>16.51303917967687</v>
       </c>
       <c r="N15" t="n">
-        <v>371.8925761935062</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>319.6085640519034</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>233.2909036464246</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961188</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -32555,16 +32555,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>196.1430416967706</v>
+        <v>359.9147016846446</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32573,13 +32573,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>141.3402618185952</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>156.6883183131489</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>126.047528046943</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>5.536773695537448</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>382.6085316942081</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>18.84687933878996</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>11.22052431247289</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540871</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>405.8054988311742</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>161.5642219499948</v>
+        <v>274.6428274527295</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>233.899093005769</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>171.9901114440528</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>590.5808727479302</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>316.3903480144608</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>340.0840690076585</v>
       </c>
       <c r="N15" t="n">
-        <v>719.8932384537264</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>667.6092263121236</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>417.7792648720315</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>519.7140715247522</v>
+        <v>683.4857315126262</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>489.3409240788154</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>479.4216529937808</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>18.84687933878992</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>449.6185578749246</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>237.8227392191224</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>342.724255703813</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>706.1795615221897</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>420.3113304741611</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>342.4179091667716</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>195.7088855380798</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951457</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>657.0715736634593</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>393.8501874735798</v>
+        <v>136.0884476728553</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>581.8997552659893</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.00833735803128</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3082449.21453266</v>
+        <v>3157978.884197466</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>721535.0259540672</v>
+        <v>857870.3683193149</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>184.4299698853589</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,10 +715,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>288.2142327109575</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -792,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>79.48734420188134</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>93.95831792021254</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.602837505177126</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>306.2838626386958</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>74.53436060286474</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>216.6993815150878</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>16.60557849018884</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>154.369230484008</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>29.41204342723558</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>9.465136769599217</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896911</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>38.86210752632127</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>11.97054259630945</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>110.203129538133</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,16 +1818,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>90.17651664802349</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1895,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2005,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>79.91475026970382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>101.2898147863548</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2290,19 +2292,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>137.1258676854691</v>
+        <v>209.7723097876323</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2372,7 +2374,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>154.1709675101222</v>
+        <v>151.3458755988047</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2606,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>69.79831921754564</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>3.347695664762796</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701332</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>112.8480137530759</v>
+        <v>176.5305429001572</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>178.5892209839261</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>282.101664776341</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>85.48884212582738</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.738791332773453</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>30.5367822126943</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>33.94484872800959</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>40.58383361977268</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>149.7110267687787</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4031,7 +4033,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.9519809751039</v>
+        <v>61.38537889855467</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>818.6111655503914</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1702.420973886214</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1349.6523186161</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1349.6523186161</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.5129866402885</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>113.6371076753678</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4443,7 +4445,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.919485916526</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="C4" t="n">
-        <v>477.919485916526</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D4" t="n">
-        <v>327.8028465041903</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E4" t="n">
-        <v>179.8897529217971</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.919485916526</v>
+        <v>485.0749338020197</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1957.780595683986</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>2344.380435748108</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y5" t="n">
-        <v>2344.380435748108</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4659,28 +4661,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="U7" t="n">
-        <v>281.9325327183818</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.141365880777</v>
+        <v>1533.27522618254</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2680.375779411972</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2680.375779411972</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2680.375779411972</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2327.607124141857</v>
+        <v>2310.014398222474</v>
       </c>
       <c r="X8" t="n">
-        <v>1954.141365880777</v>
+        <v>2310.014398222474</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.141365880777</v>
+        <v>1919.875066246662</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4899,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>252.6519168570175</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>252.6519168570175</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>252.6519168570175</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>252.6519168570175</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>252.6519168570175</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>83.6521165953499</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>83.6521165953499</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>83.6521165953499</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005476</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005476</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.6519168570175</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,19 +5059,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5084,7 +5086,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750119</v>
+        <v>860.1838454192343</v>
       </c>
       <c r="M12" t="n">
-        <v>836.4717212750119</v>
+        <v>1514.026829795096</v>
       </c>
       <c r="N12" t="n">
-        <v>1640.883299539163</v>
+        <v>1843.889457459129</v>
       </c>
       <c r="O12" t="n">
-        <v>2310.347060841822</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>524.8400981009108</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="C13" t="n">
-        <v>524.8400981009108</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D13" t="n">
-        <v>524.8400981009108</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1348.586513052737</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1124.801097842243</v>
       </c>
       <c r="U13" t="n">
-        <v>1263.039398179419</v>
+        <v>1124.801097842243</v>
       </c>
       <c r="V13" t="n">
-        <v>1263.039398179419</v>
+        <v>1124.801097842243</v>
       </c>
       <c r="W13" t="n">
-        <v>973.6222281424583</v>
+        <v>1124.801097842243</v>
       </c>
       <c r="X13" t="n">
-        <v>745.632677244441</v>
+        <v>896.8115469442253</v>
       </c>
       <c r="Y13" t="n">
-        <v>524.8400981009108</v>
+        <v>676.0189678006951</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,34 +5263,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>138.7081686256434</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>752.6052383825321</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.288466700114</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.809122337732</v>
+        <v>1679.69270477794</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.272883640391</v>
+        <v>2349.156466080599</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>355.6416303362487</v>
+        <v>523.5986531011363</v>
       </c>
       <c r="C16" t="n">
-        <v>355.6416303362487</v>
+        <v>523.5986531011363</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6416303362487</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5466,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>873.0483512712267</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W16" t="n">
-        <v>583.631181234266</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="X16" t="n">
-        <v>355.6416303362487</v>
+        <v>705.247117931376</v>
       </c>
       <c r="Y16" t="n">
-        <v>355.6416303362487</v>
+        <v>705.247117931376</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5500,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>372.0730437590147</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061687</v>
+        <v>985.9701135159033</v>
       </c>
       <c r="M18" t="n">
-        <v>1442.339749591389</v>
+        <v>1754.338259908365</v>
       </c>
       <c r="N18" t="n">
-        <v>2103.272883640391</v>
+        <v>1754.338259908365</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>646.6490309742555</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>646.6490309742555</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>496.5323915619198</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>496.5323915619198</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>496.5323915619198</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>328.3570698817404</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>177.9390614296836</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5700,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324571</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W19" t="n">
-        <v>318.0096706038159</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>646.6490309742555</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>646.6490309742555</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5768,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5835,19 +5837,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>711.1141612171745</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M21" t="n">
-        <v>1387.765035414674</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N21" t="n">
-        <v>2192.176613678825</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O21" t="n">
-        <v>2440.930027762787</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245.130185042679</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D22" t="n">
         <v>245.130185042679</v>
@@ -5938,22 +5940,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W22" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X22" t="n">
-        <v>647.5712290164488</v>
+        <v>797.6878684287846</v>
       </c>
       <c r="Y22" t="n">
-        <v>426.7786498729187</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>2334.498159098441</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>2948.395228855329</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M24" t="n">
-        <v>3716.76337524779</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="N24" t="n">
-        <v>3716.76337524779</v>
+        <v>1180.99237691263</v>
       </c>
       <c r="O24" t="n">
-        <v>4386.227136550449</v>
+        <v>1850.456138215289</v>
       </c>
       <c r="P24" t="n">
-        <v>4860.854573014292</v>
+        <v>2370.756759951037</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>672.4909068465487</v>
+        <v>3924.337302507101</v>
       </c>
       <c r="C25" t="n">
-        <v>503.5547239186418</v>
+        <v>3924.337302507101</v>
       </c>
       <c r="D25" t="n">
-        <v>503.5547239186418</v>
+        <v>3774.220663094765</v>
       </c>
       <c r="E25" t="n">
-        <v>355.6416303362487</v>
+        <v>3774.220663094765</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="V25" t="n">
-        <v>1009.867621687013</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="W25" t="n">
-        <v>854.1393716767884</v>
+        <v>4373.119432548649</v>
       </c>
       <c r="X25" t="n">
-        <v>854.1393716767884</v>
+        <v>4145.129881650631</v>
       </c>
       <c r="Y25" t="n">
-        <v>854.1393716767884</v>
+        <v>3924.337302507101</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,16 +6244,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>115.8755020056878</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L27" t="n">
-        <v>729.7725717625765</v>
+        <v>860.1838454192343</v>
       </c>
       <c r="M27" t="n">
-        <v>1050.107891292278</v>
+        <v>1180.519164948936</v>
       </c>
       <c r="N27" t="n">
-        <v>1854.519469556429</v>
+        <v>1984.930743213087</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1271.749344574921</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>646.9375622247744</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>426.1449830812443</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155902</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>624.3403654974168</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>944.6756850271186</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N30" t="n">
-        <v>1749.087263291269</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O30" t="n">
-        <v>2418.551024593929</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3925.661817631304</v>
+        <v>3904.075074409314</v>
       </c>
       <c r="C31" t="n">
-        <v>3925.661817631304</v>
+        <v>3904.075074409314</v>
       </c>
       <c r="D31" t="n">
-        <v>3925.661817631304</v>
+        <v>3753.958434996978</v>
       </c>
       <c r="E31" t="n">
-        <v>3777.748724048911</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="F31" t="n">
-        <v>3777.748724048911</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368731</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H31" t="n">
         <v>3459.155393916675</v>
@@ -6631,40 +6633,40 @@
         <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431055</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436452</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042135</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576117</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.859459491669</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T31" t="n">
-        <v>4549.859459491669</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U31" t="n">
-        <v>4549.859459491669</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="V31" t="n">
-        <v>4549.859459491669</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="W31" t="n">
-        <v>4260.442289454709</v>
+        <v>4082.388754106442</v>
       </c>
       <c r="X31" t="n">
-        <v>4146.454396774834</v>
+        <v>3904.075074409314</v>
       </c>
       <c r="Y31" t="n">
-        <v>3925.661817631304</v>
+        <v>3904.075074409314</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,37 +6712,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L33" t="n">
-        <v>904.39166832551</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="M33" t="n">
-        <v>1603.509434232478</v>
+        <v>1031.90644000511</v>
       </c>
       <c r="N33" t="n">
-        <v>2407.921012496628</v>
+        <v>1836.31801826926</v>
       </c>
       <c r="O33" t="n">
-        <v>2407.921012496628</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2612.943493278838</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.3337308726216</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6886,22 +6888,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1007.528004526264</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>718.3993657398219</v>
+        <v>902.9699804935216</v>
       </c>
       <c r="V34" t="n">
-        <v>718.3993657398219</v>
+        <v>648.2854922876347</v>
       </c>
       <c r="W34" t="n">
-        <v>428.9821957028613</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="X34" t="n">
-        <v>428.9821957028613</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="Y34" t="n">
-        <v>428.9821957028613</v>
+        <v>358.8683222506741</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6932,13 +6934,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6959,7 +6961,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7013,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L36" t="n">
-        <v>711.1141612171745</v>
+        <v>710.8440163916146</v>
       </c>
       <c r="M36" t="n">
-        <v>1050.107891292278</v>
+        <v>1479.212162784076</v>
       </c>
       <c r="N36" t="n">
-        <v>1854.519469556429</v>
+        <v>1823.732818421694</v>
       </c>
       <c r="O36" t="n">
         <v>2103.272883640391</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>525.6009593486384</v>
+        <v>3861.596174962913</v>
       </c>
       <c r="C37" t="n">
-        <v>356.6647764207315</v>
+        <v>3861.596174962913</v>
       </c>
       <c r="D37" t="n">
-        <v>356.6647764207315</v>
+        <v>3861.596174962913</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>3713.68308138052</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>1493.119511635909</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S37" t="n">
-        <v>1293.199501551461</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T37" t="n">
-        <v>1069.414086340967</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="U37" t="n">
-        <v>780.2854475545253</v>
+        <v>4371.805924143404</v>
       </c>
       <c r="V37" t="n">
-        <v>525.6009593486384</v>
+        <v>4371.805924143404</v>
       </c>
       <c r="W37" t="n">
-        <v>525.6009593486384</v>
+        <v>4082.388754106443</v>
       </c>
       <c r="X37" t="n">
-        <v>525.6009593486384</v>
+        <v>4082.388754106443</v>
       </c>
       <c r="Y37" t="n">
-        <v>525.6009593486384</v>
+        <v>3861.596174962913</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7156,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>246.2867756623457</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="L39" t="n">
-        <v>860.1838454192343</v>
+        <v>752.6052383825321</v>
       </c>
       <c r="M39" t="n">
-        <v>1628.551991811696</v>
+        <v>1059.925371662494</v>
       </c>
       <c r="N39" t="n">
-        <v>1973.072647449314</v>
+        <v>1404.446027300112</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>917.0640635030462</v>
+        <v>695.9798268587604</v>
       </c>
       <c r="C40" t="n">
-        <v>748.1278805751393</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D40" t="n">
-        <v>598.0112411628036</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E40" t="n">
-        <v>450.0981475804105</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F40" t="n">
-        <v>450.0981475804105</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G40" t="n">
-        <v>281.922825900231</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>131.5048174481743</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>1098.712528333286</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>1098.712528333286</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>1098.712528333286</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.712528333286</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7409,10 +7411,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7451,10 +7453,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>523.6234168666124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>843.9587363963142</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N42" t="n">
-        <v>1648.370314660465</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O42" t="n">
-        <v>2317.834075963124</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.2416896507652</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C43" t="n">
-        <v>413.3055067228584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D43" t="n">
-        <v>413.3055067228584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>844.0280401273991</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W43" t="n">
-        <v>803.0342687942954</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X43" t="n">
-        <v>803.0342687942954</v>
+        <v>634.8589471141159</v>
       </c>
       <c r="Y43" t="n">
-        <v>582.2416896507652</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L45" t="n">
-        <v>877.4353633695368</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M45" t="n">
-        <v>1184.755496649498</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N45" t="n">
-        <v>1760.836254362828</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="O45" t="n">
-        <v>2430.300015665487</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P45" t="n">
         <v>2612.943493278838</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>649.6418670412196</v>
+        <v>306.1124721890595</v>
       </c>
       <c r="C46" t="n">
-        <v>509.2863307027308</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D46" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V46" t="n">
-        <v>1387.841167119728</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W46" t="n">
-        <v>1098.423997082767</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X46" t="n">
-        <v>870.4344461847497</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y46" t="n">
-        <v>649.6418670412196</v>
+        <v>306.1124721890595</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>350.0230819150506</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8790,7 +8792,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>342.3286456903368</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>127.0568364612819</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,19 +9254,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>174.9289457206278</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,10 +9500,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>272.3282380622561</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10206,13 +10208,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>7.660125040663786</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>243.9436737040679</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10908,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10917,13 +10919,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,13 +11156,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11376,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>159.058702457282</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>274.2668098022679</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>38.41234348007931</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>161.9611266758045</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>30.50449519456818</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>185.2331835502362</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24178,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>88.58378770356802</v>
+        <v>15.93734560140484</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>132.3520308264688</v>
+        <v>135.1771227377863</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>110.0336609643917</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24619,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.8896567338145</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>112.8616416359612</v>
+        <v>49.17911248887998</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25093,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>42.95834007446311</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>4.135687622236333</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>59.93220589710387</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>104.2255610710193</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>149.295197969243</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>76.47439673626241</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25603,16 +25605,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>245.9391647168183</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>75.9986286202585</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.2948401235239</v>
+        <v>105.8614422000732</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -26080,7 +26082,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016472</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
         <v>625646.4955803346</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.495580334</v>
       </c>
       <c r="G2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.495580334</v>
       </c>
       <c r="H2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="I2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="L2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="N2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="K2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625646.4955803344</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625646.4955803343</v>
-      </c>
       <c r="O2" t="n">
-        <v>625646.4955803338</v>
+        <v>625646.495580334</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803347</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26421,19 +26423,19 @@
         <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758694</v>
@@ -26442,22 +26444,22 @@
         <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905759459</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905759223</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758329</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26491,25 +26493,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155052.6805671464</v>
+        <v>-155052.6805671463</v>
       </c>
       <c r="C6" t="n">
-        <v>434915.1986473978</v>
+        <v>434915.1986473982</v>
       </c>
       <c r="D6" t="n">
-        <v>434915.198647398</v>
+        <v>434915.1986473979</v>
       </c>
       <c r="E6" t="n">
-        <v>7711.339464146062</v>
+        <v>7711.3394641458</v>
       </c>
       <c r="F6" t="n">
-        <v>532871.3759410419</v>
+        <v>532871.3759410415</v>
       </c>
       <c r="G6" t="n">
-        <v>532871.3759410416</v>
+        <v>532871.3759410415</v>
       </c>
       <c r="H6" t="n">
         <v>532871.3759410417</v>
       </c>
       <c r="I6" t="n">
+        <v>532871.3759410419</v>
+      </c>
+      <c r="J6" t="n">
+        <v>356448.1567484489</v>
+      </c>
+      <c r="K6" t="n">
+        <v>532871.3759410419</v>
+      </c>
+      <c r="L6" t="n">
         <v>532871.3759410415</v>
       </c>
-      <c r="J6" t="n">
-        <v>356448.1567484488</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>398070.3607072047</v>
+      </c>
+      <c r="N6" t="n">
+        <v>532871.3759410417</v>
+      </c>
+      <c r="O6" t="n">
         <v>532871.3759410415</v>
       </c>
-      <c r="L6" t="n">
-        <v>532871.3759410419</v>
-      </c>
-      <c r="M6" t="n">
-        <v>398070.3607072048</v>
-      </c>
-      <c r="N6" t="n">
-        <v>532871.3759410419</v>
-      </c>
-      <c r="O6" t="n">
-        <v>532871.3759410413</v>
-      </c>
       <c r="P6" t="n">
-        <v>532871.3759410419</v>
+        <v>532871.3759410422</v>
       </c>
     </row>
   </sheetData>
@@ -26738,16 +26740,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26762,16 +26764,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>197.5004001869029</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>39.5380257591774</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>65.9337038210499</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>131.0767875378717</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>361.6700542658304</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>48.39917898198718</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>72.13083137729312</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>69.58249272688991</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>199.842741867469</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>194.871738233405</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>15.78791576130141</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>242.6725065542288</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>61.04368814949358</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31148,19 +31150,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31379,25 +31381,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,25 +31840,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>131.9019867888539</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,16 +32077,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>16.51303917967687</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32099,13 +32101,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32321,13 +32323,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>319.6085640519034</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
@@ -32336,7 +32338,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32494,7 +32496,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
         <v>76.06970478104648</v>
@@ -32555,25 +32557,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>359.9147016846446</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32786,16 +32788,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -32807,7 +32809,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>185.2749362745174</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -33023,10 +33025,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>156.6883183131489</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
@@ -33038,16 +33040,16 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>84.99991784452038</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33262,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>5.536773695537448</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>168.9387261055272</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33499,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>382.6085316942081</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,25 +33648,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33743,28 +33745,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>18.84687933878996</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33973,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>405.8054988311742</v>
+        <v>156.5293181218212</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,25 +34210,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>274.6428274527295</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>380.4309478731437</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34372,7 +34374,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130445</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
@@ -34445,28 +34447,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>233.899093005769</v>
+        <v>47.68583217771453</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>60.29709682323572</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>660.4474589655169</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>316.3903480144608</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>340.0840690076585</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>210.9869336070035</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>277.6322750492211</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>667.6092263121236</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>683.4857315126262</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>43.58723363729445</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>479.4216529937808</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>255.370449924345</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>18.84687933878992</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
@@ -36686,16 +36688,16 @@
         <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>336.2659926768055</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>237.8227392191224</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>516.9393883657474</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>706.1795615221897</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>290.023827281772</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>493.2013786600922</v>
       </c>
       <c r="M36" t="n">
-        <v>342.4179091667716</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>657.0715736634593</v>
+        <v>407.7953929541063</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>136.0884476728553</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>728.431610133364</v>
       </c>
       <c r="O42" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,16 +38104,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>581.8997552659893</v>
+        <v>395.6864944379348</v>
       </c>
       <c r="O45" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3157978.884197466</v>
+        <v>3150961.869305755</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>857870.3683193149</v>
+        <v>628928.519409844</v>
       </c>
     </row>
     <row r="8">
@@ -661,16 +661,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>301.6509053416989</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>184.4299698853589</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>93.95831792021254</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>83.59830597394804</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>306.2838626386958</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>47.50320101340309</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>74.53436060286474</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.264003285459112</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>13.15972490571525</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>154.369230484008</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>9.465136769599217</v>
+        <v>226.9736586744963</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710093</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>38.86210752632127</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>9.283721801528689</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498035</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.203129538133</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185964</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>79.91475026970382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>122.6519788371608</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>209.7723097876323</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>151.3458755988047</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>52.51909299954703</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.79831921754564</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>112.7232111520217</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,13 +2958,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>261.3102280025979</v>
       </c>
       <c r="X31" t="n">
-        <v>176.5305429001572</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>61.11700348661588</v>
       </c>
       <c r="U34" t="n">
-        <v>282.101664776341</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>85.48884212582738</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.5367822126943</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>21.83881304669695</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>149.7110267687787</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>61.38537889855467</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1176.876864157142</v>
+        <v>532.9757468194216</v>
       </c>
       <c r="C2" t="n">
-        <v>1176.876864157142</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="D2" t="n">
-        <v>818.6111655503914</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F2" t="n">
         <v>221.3323618866839</v>
@@ -4327,22 +4327,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X2" t="n">
-        <v>1563.476704221264</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="Y2" t="n">
-        <v>1563.476704221264</v>
+        <v>919.5755868835433</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>113.6371076753678</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>368.8844281164663</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>773.5003462121382</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1297.647259770169</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1851.37379586972</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890064</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2627.754532504893</v>
@@ -4436,10 +4436,10 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4515,25 +4515,25 @@
         <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>485.0749338020197</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U4" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V4" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W4" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X4" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.638474227114</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1250.638474227114</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2318.103172347981</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>1965.334517077867</v>
       </c>
       <c r="X5" t="n">
-        <v>1640.777806202926</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y5" t="n">
-        <v>1250.638474227114</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4661,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4673,25 +4673,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>652.8417512742476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>652.8417512742476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>652.8417512742476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>652.8417512742476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>652.8417512742476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>652.8417512742476</v>
+        <v>726.852213211021</v>
       </c>
       <c r="X7" t="n">
-        <v>424.8522003762303</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1533.27522618254</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="C8" t="n">
-        <v>1164.312709242129</v>
+        <v>825.2129885066827</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>466.9472898999322</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>81.15903730168793</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2310.014398222474</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2310.014398222474</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1919.875066246662</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>281.2479710834698</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W10" t="n">
-        <v>281.2479710834698</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X10" t="n">
-        <v>281.2479710834698</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y10" t="n">
-        <v>281.2479710834698</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,67 +5026,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028579</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>246.2867756623457</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>860.1838454192343</v>
+        <v>836.4717212750122</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.026829795096</v>
+        <v>1604.839867667474</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.889457459129</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.642871543091</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>676.0189678006951</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>507.0827848727882</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>507.0827848727882</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1348.586513052737</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1124.801097842243</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1124.801097842243</v>
+        <v>1009.867621687014</v>
       </c>
       <c r="V13" t="n">
-        <v>1124.801097842243</v>
+        <v>1000.490124917793</v>
       </c>
       <c r="W13" t="n">
-        <v>1124.801097842243</v>
+        <v>711.072954880832</v>
       </c>
       <c r="X13" t="n">
-        <v>896.8115469442253</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.0189678006951</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="14">
@@ -5275,40 +5275,40 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>2056.693778606512</v>
       </c>
       <c r="N15" t="n">
-        <v>1679.69270477794</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O15" t="n">
-        <v>2349.156466080599</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>523.5986531011363</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C16" t="n">
-        <v>523.5986531011363</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247869</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>675.0071030383451</v>
       </c>
       <c r="V16" t="n">
-        <v>933.2366688293934</v>
+        <v>420.3226148324583</v>
       </c>
       <c r="W16" t="n">
-        <v>933.2366688293934</v>
+        <v>130.9054447954977</v>
       </c>
       <c r="X16" t="n">
-        <v>705.247117931376</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="Y16" t="n">
-        <v>705.247117931376</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,49 +5500,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,7 +5582,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>372.0730437590147</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L18" t="n">
-        <v>985.9701135159033</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1754.338259908365</v>
+        <v>2056.693778606512</v>
       </c>
       <c r="N18" t="n">
-        <v>1754.338259908365</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>646.6490309742555</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>646.6490309742555</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>496.5323915619198</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>496.5323915619198</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>496.5323915619198</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>328.3570698817404</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>177.9390614296836</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609673</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.055751909234</v>
+        <v>731.3177283550805</v>
       </c>
       <c r="W19" t="n">
-        <v>874.6385818722729</v>
+        <v>441.9005583181199</v>
       </c>
       <c r="X19" t="n">
-        <v>646.6490309742555</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y19" t="n">
-        <v>646.6490309742555</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>327.180197328635</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1095.548343721096</v>
+        <v>2056.693778606512</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>2056.693778606512</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>1009.579090436494</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>797.6878684287846</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>576.8952892852544</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L24" t="n">
-        <v>836.4717212750119</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>836.4717212750119</v>
+        <v>2056.693778606512</v>
       </c>
       <c r="N24" t="n">
-        <v>1180.99237691263</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1850.456138215289</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2370.756759951037</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3924.337302507101</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C25" t="n">
-        <v>3924.337302507101</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D25" t="n">
-        <v>3774.220663094765</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E25" t="n">
-        <v>3774.220663094765</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596855</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365623</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="U25" t="n">
-        <v>4525.994054365623</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="V25" t="n">
-        <v>4525.994054365623</v>
+        <v>1133.156678913842</v>
       </c>
       <c r="W25" t="n">
-        <v>4373.119432548649</v>
+        <v>843.739508876881</v>
       </c>
       <c r="X25" t="n">
-        <v>4145.129881650631</v>
+        <v>615.7499579788637</v>
       </c>
       <c r="Y25" t="n">
-        <v>3924.337302507101</v>
+        <v>562.7003690904323</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>246.2867756623457</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>860.1838454192343</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1180.519164948936</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1984.930743213087</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>355.6416303362487</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="C28" t="n">
-        <v>355.6416303362487</v>
+        <v>357.9688684046828</v>
       </c>
       <c r="D28" t="n">
-        <v>355.6416303362487</v>
+        <v>357.9688684046828</v>
       </c>
       <c r="E28" t="n">
-        <v>355.6416303362487</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>874.9271131227918</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V28" t="n">
-        <v>874.9271131227918</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W28" t="n">
-        <v>874.9271131227918</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X28" t="n">
-        <v>646.9375622247744</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y28" t="n">
-        <v>426.1449830812443</v>
+        <v>526.9050513325897</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6454,10 +6454,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6466,16 +6466,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,10 +6551,10 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1442.339749591389</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3904.075074409314</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C31" t="n">
-        <v>3904.075074409314</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D31" t="n">
-        <v>3753.958434996978</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E31" t="n">
-        <v>3606.045341414585</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929845</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>4371.805924143403</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V31" t="n">
-        <v>4371.805924143403</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W31" t="n">
-        <v>4082.388754106442</v>
+        <v>1011.181130092259</v>
       </c>
       <c r="X31" t="n">
-        <v>3904.075074409314</v>
+        <v>783.1915791942415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3904.075074409314</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6782,22 +6782,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>263.5382936126482</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>263.5382936126482</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1031.90644000511</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1836.31801826926</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>358.8683222506741</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C34" t="n">
-        <v>358.8683222506741</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1126.186810079103</v>
       </c>
       <c r="U34" t="n">
-        <v>902.9699804935216</v>
+        <v>1126.186810079103</v>
       </c>
       <c r="V34" t="n">
-        <v>648.2854922876347</v>
+        <v>1126.186810079103</v>
       </c>
       <c r="W34" t="n">
-        <v>358.8683222506741</v>
+        <v>836.769640042142</v>
       </c>
       <c r="X34" t="n">
-        <v>358.8683222506741</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y34" t="n">
-        <v>358.8683222506741</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6931,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6961,7 +6961,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,13 +6970,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>222.5746515181233</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>710.8440163916146</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1479.212162784076</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1823.732818421694</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3861.596174962913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3861.596174962913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3861.596174962913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3713.68308138052</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929846</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>4660.934562929846</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4371.805924143404</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4371.805924143404</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4082.388754106443</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4082.388754106443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>3861.596174962913</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>138.7081686256435</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>752.6052383825321</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1059.925371662494</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1404.446027300112</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.9798268587604</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C40" t="n">
-        <v>527.0436439308535</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D40" t="n">
-        <v>376.9270045185177</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E40" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150548</v>
+        <v>1141.996344791358</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170374</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="Y40" t="n">
-        <v>726.8250614170374</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,22 +7399,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>417.5524109899876</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>786.0822064765186</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>634.8589471141159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>711.1141612171746</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1031.449480746876</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1423.179110240432</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.642871543091</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>754.894602230607</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>350.0230819150506</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,22 +9014,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>342.3286456903368</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>127.0568364612819</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>174.9289457206278</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,22 +9725,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10205,7 +10205,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>7.660125040663786</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>243.9436737040679</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10679,10 +10679,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11153,16 +11153,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>159.058702457282</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>242.8539215222993</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>38.41234348007931</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,19 +23706,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>192.3581855871775</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>30.50449519456818</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>103.0576765518763</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>15.93734560140484</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24417,22 +24417,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>135.1771227377863</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>166.0655603525478</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>110.0336609643917</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>33.71075149454747</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>25.21277033399315</v>
       </c>
       <c r="X31" t="n">
-        <v>49.17911248887998</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>160.4305575717734</v>
       </c>
       <c r="U34" t="n">
-        <v>4.135687622236333</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>59.93220589710387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>149.295197969243</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>264.6841852898941</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25839,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>75.9986286202585</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>105.8614422000732</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="G2" t="n">
         <v>625646.4955803346</v>
       </c>
-      <c r="F2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.495580334</v>
-      </c>
       <c r="H2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803344</v>
       </c>
       <c r="J2" t="n">
         <v>625646.4955803343</v>
       </c>
       <c r="K2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="L2" t="n">
         <v>625646.495580334</v>
       </c>
       <c r="M2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="O2" t="n">
         <v>625646.4955803343</v>
       </c>
-      <c r="N2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625646.495580334</v>
-      </c>
       <c r="P2" t="n">
-        <v>625646.4955803347</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925925</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905757879</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905757548</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905757817</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905757998</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758697</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758329</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
@@ -26478,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871668</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155052.6805671463</v>
+        <v>-155052.6805671462</v>
       </c>
       <c r="C6" t="n">
-        <v>434915.1986473982</v>
+        <v>434915.198647398</v>
       </c>
       <c r="D6" t="n">
-        <v>434915.1986473979</v>
+        <v>434915.1986473978</v>
       </c>
       <c r="E6" t="n">
-        <v>7711.3394641458</v>
+        <v>6736.748204423518</v>
       </c>
       <c r="F6" t="n">
-        <v>532871.3759410415</v>
+        <v>531896.7846813202</v>
       </c>
       <c r="G6" t="n">
-        <v>532871.3759410415</v>
+        <v>531896.7846813204</v>
       </c>
       <c r="H6" t="n">
-        <v>532871.3759410417</v>
+        <v>531896.7846813204</v>
       </c>
       <c r="I6" t="n">
-        <v>532871.3759410419</v>
+        <v>531896.7846813202</v>
       </c>
       <c r="J6" t="n">
-        <v>356448.1567484489</v>
+        <v>355473.5654887276</v>
       </c>
       <c r="K6" t="n">
-        <v>532871.3759410419</v>
+        <v>531896.7846813201</v>
       </c>
       <c r="L6" t="n">
-        <v>532871.3759410415</v>
+        <v>531896.7846813198</v>
       </c>
       <c r="M6" t="n">
-        <v>398070.3607072047</v>
+        <v>397095.7694474828</v>
       </c>
       <c r="N6" t="n">
-        <v>532871.3759410417</v>
+        <v>531896.7846813198</v>
       </c>
       <c r="O6" t="n">
-        <v>532871.3759410415</v>
+        <v>531896.7846813202</v>
       </c>
       <c r="P6" t="n">
-        <v>532871.3759410422</v>
+        <v>531896.7846813202</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541008</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541008</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499018</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.287272754555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>63.62198642930866</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>197.5004001869029</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>131.0767875378717</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>48.39917898198718</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>168.9451193442547</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>72.13083137729312</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>285.2589950511319</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>393.7163208359962</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>194.871738233405</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>242.6725065542288</v>
+        <v>25.16398464933172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-3.387342428134344e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>61.04368814949358</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31381,13 +31381,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31621,10 +31621,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034981</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,43 +31837,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>245.268778155286</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>224.6051223555639</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>224.6051223555639</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32341,13 +32341,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>321.3397097834991</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>224.6051223555639</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>185.2749362745174</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,28 +33034,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>84.99991784452038</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33207,7 +33207,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S29" t="n">
         <v>76.0697047810465</v>
@@ -33271,13 +33271,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>168.9387261055272</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33502,25 +33502,25 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33736,10 +33736,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
@@ -33748,13 +33748,13 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -33976,7 +33976,7 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
@@ -33985,16 +33985,16 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>156.5293181218212</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34122,25 +34122,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,37 +34210,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>380.4309478731437</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,25 +34359,25 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130445</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,37 +34447,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>47.68583217771453</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.29709682323572</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,10 +34792,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>660.4474589655169</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>593.2694404155062</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N15" t="n">
-        <v>210.9869336070035</v>
+        <v>572.6057846157842</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>277.6322750492211</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>572.6057846157842</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N21" t="n">
-        <v>43.58723363729445</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>572.6057846157842</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157842</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>255.370449924345</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>336.2659926768055</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>516.9393883657474</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>290.023827281772</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>493.2013786600922</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>407.7953929541063</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>728.431610133364</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>395.6864944379348</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3150961.869305755</v>
+        <v>3155901.132154786</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>628928.519409844</v>
+        <v>611666.8115904185</v>
       </c>
     </row>
     <row r="8">
@@ -661,16 +661,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>301.6509053416989</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>116.9942872557397</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -788,7 +788,7 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.706926911161474</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>83.59830597394804</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>47.50320101340309</v>
+        <v>124.0312919752491</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1.264003285459112</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>26.32882004050031</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>13.15972490571525</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>261.8436828907069</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>226.9736586744963</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710093</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>137.9838098727421</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1581,16 +1581,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>9.283721801528689</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498035</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>255.3303665522258</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185964</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>122.6519788371608</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y25" t="n">
-        <v>52.51909299954703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385022</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>112.7232111520217</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>261.3102280025979</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>61.11700348661588</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>115.526976800214</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>21.83881304669695</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847138</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532.9757468194216</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C2" t="n">
-        <v>228.2778626358873</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358873</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358873</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2578.973043285152</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2325.211257923243</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.483574129469</v>
+        <v>1994.148370579673</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859355</v>
+        <v>1641.379715309559</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859355</v>
+        <v>1641.379715309559</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835433</v>
+        <v>1251.240383333747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,22 +4436,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>726.4048156093014</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>726.4048156093014</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>512.1163924274641</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273827</v>
+        <v>512.1163924274641</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="5">
@@ -4555,31 +4555,31 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,10 +4597,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2649.166059691552</v>
+        <v>2571.86495770989</v>
       </c>
       <c r="U5" t="n">
-        <v>2649.166059691552</v>
+        <v>2318.103172347981</v>
       </c>
       <c r="V5" t="n">
         <v>2318.103172347981</v>
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4673,16 +4673,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207637</v>
@@ -4691,7 +4691,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.8626623130036</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>726.852213211021</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>498.8626623130036</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447094</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066827</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9472898999322</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>81.15903730168793</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511216</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>498.8626623130036</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W10" t="n">
-        <v>498.8626623130036</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X10" t="n">
-        <v>498.8626623130036</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.8626623130036</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,10 +5026,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181233</v>
+        <v>395.9961833785279</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750122</v>
+        <v>1009.893253135417</v>
       </c>
       <c r="M12" t="n">
-        <v>1604.839867667474</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N12" t="n">
-        <v>2192.176613678825</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.072954880832</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405894</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581963</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687014</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1000.490124917793</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>711.072954880832</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X13" t="n">
-        <v>711.072954880832</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y13" t="n">
-        <v>711.072954880832</v>
+        <v>531.3977182706318</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,67 +5263,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,19 +5354,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606512</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.2170914602859</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C16" t="n">
-        <v>97.2170914602859</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>97.2170914602859</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247869</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383451</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324583</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954977</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X16" t="n">
-        <v>97.2170914602859</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.2170914602859</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="17">
@@ -5506,43 +5506,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5582,7 +5582,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
@@ -5591,19 +5591,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>2056.693778606512</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609673</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550805</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181199</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>318.009670603816</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>389.2010503107778</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>1003.098120067666</v>
       </c>
       <c r="M21" t="n">
-        <v>2056.693778606512</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="N21" t="n">
-        <v>2056.693778606512</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336716</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028589</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,19 +6065,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571611</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M24" t="n">
-        <v>2056.693778606512</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119729</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119729</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1133.156678913842</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>843.739508876881</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>615.7499579788637</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6205,16 +6205,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6244,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,16 +6305,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>357.9688684046828</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>357.9688684046828</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>754.894602230607</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1011.181130092259</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>783.1915791942415</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,7 +6700,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1126.186810079103</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1126.186810079103</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1126.186810079103</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>836.769640042142</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>836.769640042142</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,25 +7004,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M36" t="n">
         <v>2056.693778606511</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7107,19 +7107,19 @@
         <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S37" t="n">
         <v>1382.222354598086</v>
@@ -7137,10 +7137,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,22 +7159,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514081</v>
@@ -7192,16 +7192,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,25 +7241,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M39" t="n">
         <v>2056.693778606511</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1164.055751909234</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1141.996344791358</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>914.0067938933407</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y40" t="n">
-        <v>914.0067938933407</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,19 +7660,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9497,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>10.6316631454703</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>242.8539215222993</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871775</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>103.0576765518763</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y25" t="n">
-        <v>166.0655603525478</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>33.71075149454747</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>25.21277033399315</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>160.4305575717734</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338928</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>264.6841852898941</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914265</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914264</v>
-      </c>
       <c r="E2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.4955803344</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="J2" t="n">
         <v>625646.4955803342</v>
-      </c>
-      <c r="F2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.4955803346</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803344</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803343</v>
       </c>
       <c r="K2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="L2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="M2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="P2" t="n">
         <v>625646.4955803343</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925925</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905757879</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905757548</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905757817</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905757998</v>
+        <v>787.793690575921</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758697</v>
       </c>
     </row>
     <row r="5">
@@ -26478,34 +26478,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155052.6805671462</v>
+        <v>-155052.6805671465</v>
       </c>
       <c r="C6" t="n">
+        <v>434915.1986473982</v>
+      </c>
+      <c r="D6" t="n">
         <v>434915.198647398</v>
       </c>
-      <c r="D6" t="n">
-        <v>434915.1986473978</v>
-      </c>
       <c r="E6" t="n">
-        <v>6736.748204423518</v>
+        <v>7613.880338173315</v>
       </c>
       <c r="F6" t="n">
-        <v>531896.7846813202</v>
+        <v>532773.9168150695</v>
       </c>
       <c r="G6" t="n">
-        <v>531896.7846813204</v>
+        <v>532773.9168150695</v>
       </c>
       <c r="H6" t="n">
-        <v>531896.7846813204</v>
+        <v>532773.9168150699</v>
       </c>
       <c r="I6" t="n">
-        <v>531896.7846813202</v>
+        <v>532773.9168150697</v>
       </c>
       <c r="J6" t="n">
-        <v>355473.5654887276</v>
+        <v>356350.6976224767</v>
       </c>
       <c r="K6" t="n">
-        <v>531896.7846813201</v>
+        <v>532773.9168150696</v>
       </c>
       <c r="L6" t="n">
-        <v>531896.7846813198</v>
+        <v>532773.9168150696</v>
       </c>
       <c r="M6" t="n">
-        <v>397095.7694474828</v>
+        <v>397972.9015812324</v>
       </c>
       <c r="N6" t="n">
-        <v>531896.7846813198</v>
+        <v>532773.9168150695</v>
       </c>
       <c r="O6" t="n">
-        <v>531896.7846813202</v>
+        <v>532773.9168150695</v>
       </c>
       <c r="P6" t="n">
-        <v>531896.7846813202</v>
+        <v>532773.9168150697</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370141</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.287272754555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>63.62198642930866</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>99.45403310191811</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>27.41582304375284</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6835682680297</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27669,13 +27669,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>168.9451193442547</v>
+        <v>92.41702838240867</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>285.2589950511319</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>192.2558333115945</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>393.7163208359962</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>107.8874177877622</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>25.16398464933172</v>
+        <v>150.3569555942787</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-3.387342428134344e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30179,7 +30179,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-1.581773764546721e-12</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -31135,7 +31135,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>132.99849770713</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31147,10 +31147,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>139.4326257134861</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034981</v>
@@ -31369,7 +31369,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31384,10 +31384,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>139.4326257134861</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323596</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>175.1732645054593</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>245.268778155286</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31867,13 +31867,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>224.6051223555639</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32104,13 +32104,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724849</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N18" t="n">
-        <v>224.6051223555639</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32341,13 +32341,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>168.309493729954</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>321.3397097834991</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>216.4869287318326</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>224.6051223555639</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32815,13 +32815,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,16 +32964,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,16 +33201,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33271,7 +33271,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
         <v>392.6063366508803</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,7 +33508,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
         <v>224.6051223555648</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,7 +33745,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
         <v>224.6051223555648</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,7 +33982,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
         <v>224.6051223555648</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,25 +34122,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L41" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,7 +34219,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
         <v>224.6051223555648</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,7 +34456,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
         <v>224.6051223555648</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>323.920986939093</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>323.920986939093</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>301.7970625436789</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>593.2694404155062</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>572.6057846157842</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004665</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N18" t="n">
-        <v>572.6057846157842</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>294.9332917681736</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>572.6057846157842</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>572.6057846157842</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,10 +36682,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>740.6069989111005</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>572.6057846157851</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37393,7 +37393,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>572.6057846157851</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37475,16 +37475,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778055997</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>572.6057846157851</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>572.6057846157851</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38037,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>572.6057846157851</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
